--- a/biology/Botanique/Agropyre_de_Sibérie/Agropyre_de_Sibérie.xlsx
+++ b/biology/Botanique/Agropyre_de_Sibérie/Agropyre_de_Sibérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agropyre_de_Sib%C3%A9rie</t>
+          <t>Agropyre_de_Sibérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agropyron fragile (agropyre de Sibérie[2]) est une espèce de plantes monocotylédones de la famille des Poaceae, originaire d'Eurasie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agropyron fragile (agropyre de Sibérie) est une espèce de plantes monocotylédones de la famille des Poaceae, originaire d'Eurasie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agropyre_de_Sib%C3%A9rie</t>
+          <t>Agropyre_de_Sibérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Agropyron cristatum subsp. fragile (Roth) Á. Löve,
 Agropyron cristatum var. fragile (Roth) Dorn,
 Agropyron fragile subsp. sibiricum (Willdenow) Melderis,
 Agropyron fragile var. sibiricum (Willdenow) Tzvelev,
 Agropyron mongolicum Keng,
-Agropyron sibiricum (Willdenow) P. Beauvois[2]</t>
+Agropyron sibiricum (Willdenow) P. Beauvois</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agropyre_de_Sib%C3%A9rie</t>
+          <t>Agropyre_de_Sibérie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (1 juillet 2016)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (1 juillet 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Agropyron fragile subsp. fragile
 sous-espèce Agropyron fragile subsp. sibiricum (Willd.) Melderis
 variété Agropyron fragile var. longe-aristatum Ataeva
